--- a/db/users-1.xlsx
+++ b/db/users-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_ERP/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iafid-my.sharepoint.com/personal/yusuf_adisaputro_iaf_co_id/Documents/Desktop/02012024_practice/02012024_POS/POS/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3DDFA10050397D0AAD7CF6C980601234A006569F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F00481D-3733-40E2-A1D1-43A53BC8F397}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_148FC10850397D6A2D3FE24987601234A0062794" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D97C1F7-FE3A-4965-A85A-9CAF5306DDB2}"/>
   <bookViews>
-    <workbookView xWindow="43215" yWindow="375" windowWidth="25785" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44415" yWindow="1440" windowWidth="18615" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>email</t>
   </si>
@@ -31,19 +31,22 @@
     <t>phoneNumber</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>postcode</t>
-  </si>
-  <si>
-    <t>yusuf.adisaputro@hotmail.com</t>
-  </si>
-  <si>
-    <t>user.123P</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>fullName</t>
+  </si>
+  <si>
+    <t>lastUpdated</t>
+  </si>
+  <si>
+    <t>isDeleted</t>
+  </si>
+  <si>
+    <t>123@asd.com</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -88,8 +91,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -431,15 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,32 +462,38 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45303.619156574074</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{01854427-603D-4481-A42B-8CA6461BA5A0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{92BD57A7-5AB0-4074-A774-3592D08FFD38}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 B2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 C2:F2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>